--- a/biology/Zoologie/Callophrys_rosneri/Callophrys_rosneri.xlsx
+++ b/biology/Zoologie/Callophrys_rosneri/Callophrys_rosneri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Callophrys rosneri (ou Callophrys gryneus rosneri) est une espèce (ou une sous-espèce) de lépidoptères (papillons) nord-américains de la famille des Lycaenidae et de la sous-famille des Theclinae.
 </t>
@@ -511,13 +523,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce Callophrys augustinus a été décrite par Kurt Johnson (d) en 1976[1].
-Les travaux de Scott en 1986 considèrent ce taxon comme une sous-espèce de Callophrys gryneus, sous le nom Callophrys gryneus rosneri[1],[2].
-Sous-espèces
-Callophrys rosneri rosneri — présent dans les montagnes de la Colombie-Britannique
-Callophrys rosneri plicataria — présent sur l'ile de Vancouver[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Callophrys augustinus a été décrite par Kurt Johnson (d) en 1976.
+Les travaux de Scott en 1986 considèrent ce taxon comme une sous-espèce de Callophrys gryneus, sous le nom Callophrys gryneus rosneri,.
+</t>
         </is>
       </c>
     </row>
@@ -542,13 +554,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Nom vernaculaire</t>
+          <t>Systématique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Callophrys rosneri se nomme Rosner's Hairstreak en anglais[3].
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Callophrys rosneri rosneri — présent dans les montagnes de la Colombie-Britannique
+Callophrys rosneri plicataria — présent sur l'ile de Vancouver.</t>
         </is>
       </c>
     </row>
@@ -573,13 +591,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce papillon d'une envergure de 21 mm à 25 mm avec une fine queue coudée à chaque aile postérieure présente un dessus orange doré à marron doré[2].
-Le verso marron est ornementé d'une fine ligne postmédiane irrégulière blanche.
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callophrys rosneri se nomme Rosner's Hairstreak en anglais.
 </t>
         </is>
       </c>
@@ -605,13 +624,52 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce papillon d'une envergure de 21 mm à 25 mm avec une fine queue coudée à chaque aile postérieure présente un dessus orange doré à marron doré.
+Le verso marron est ornementé d'une fine ligne postmédiane irrégulière blanche.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Callophrys_rosneri</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callophrys_rosneri</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante hôte
-La plante hôte de sa chenille est le Thuya géant, Thuja plicata[2].
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plante hôte</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante hôte de sa chenille est le Thuya géant, Thuja plicata.
 </t>
         </is>
       </c>
